--- a/Code/Results/Cases/Case_2_170/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_170/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.452988631696314</v>
+        <v>0.8102841940994949</v>
       </c>
       <c r="C2">
-        <v>0.7197763338564016</v>
+        <v>0.2220612147349925</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2607355720520346</v>
+        <v>0.4644618158516849</v>
       </c>
       <c r="F2">
-        <v>1.505024808842592</v>
+        <v>2.059188574304642</v>
       </c>
       <c r="G2">
-        <v>0.5202775089781113</v>
+        <v>0.5321724232187819</v>
       </c>
       <c r="H2">
-        <v>0.347051120894676</v>
+        <v>0.6450555677373586</v>
       </c>
       <c r="I2">
-        <v>0.225369611095747</v>
+        <v>0.4625974569064297</v>
       </c>
       <c r="J2">
-        <v>0.01405587617174486</v>
+        <v>0.03585200113963216</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.988317643886262</v>
+        <v>0.5596912608547484</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.131406147040821</v>
+        <v>0.7121606348314344</v>
       </c>
       <c r="C3">
-        <v>0.626541093961805</v>
+        <v>0.1935999399594834</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2402331123808352</v>
+        <v>0.4612373741089968</v>
       </c>
       <c r="F3">
-        <v>1.383884249400239</v>
+        <v>2.047632612782522</v>
       </c>
       <c r="G3">
-        <v>0.4761334893643152</v>
+        <v>0.5293149327334703</v>
       </c>
       <c r="H3">
-        <v>0.3360100852422789</v>
+        <v>0.6498035695886983</v>
       </c>
       <c r="I3">
-        <v>0.2284531173325668</v>
+        <v>0.4702532687446812</v>
       </c>
       <c r="J3">
-        <v>0.01582006470577468</v>
+        <v>0.03667570645015683</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.8599552742370236</v>
+        <v>0.5244027752425211</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.934725716706453</v>
+        <v>0.6518435782678864</v>
       </c>
       <c r="C4">
-        <v>0.5695762258285981</v>
+        <v>0.176074140028561</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.227890345198567</v>
+        <v>0.4594086031030713</v>
       </c>
       <c r="F4">
-        <v>1.312867211346159</v>
+        <v>2.041930474746664</v>
       </c>
       <c r="G4">
-        <v>0.451194096747642</v>
+        <v>0.5282013462138337</v>
       </c>
       <c r="H4">
-        <v>0.3304576795259777</v>
+        <v>0.6532225008564012</v>
       </c>
       <c r="I4">
-        <v>0.2316003220155736</v>
+        <v>0.4754185898894256</v>
       </c>
       <c r="J4">
-        <v>0.01697490450085404</v>
+        <v>0.03721014092745012</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7817003832886797</v>
+        <v>0.5028929364600998</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.854722631427649</v>
+        <v>0.6272473984886631</v>
       </c>
       <c r="C5">
-        <v>0.5464165075621565</v>
+        <v>0.1689196198656759</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2229179071245468</v>
+        <v>0.4587014321102245</v>
       </c>
       <c r="F5">
-        <v>1.284709302584147</v>
+        <v>2.039956416641445</v>
       </c>
       <c r="G5">
-        <v>0.4415315448679706</v>
+        <v>0.5279077145575144</v>
       </c>
       <c r="H5">
-        <v>0.3284834057798207</v>
+        <v>0.6547420421762524</v>
       </c>
       <c r="I5">
-        <v>0.2331783371026042</v>
+        <v>0.4776398726074582</v>
       </c>
       <c r="J5">
-        <v>0.01746266158017962</v>
+        <v>0.03743512240291169</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7499300499721571</v>
+        <v>0.4941673922509864</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.841445636353569</v>
+        <v>0.6231622499318519</v>
       </c>
       <c r="C6">
-        <v>0.5425736389488804</v>
+        <v>0.1677308577021677</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2220955755636922</v>
+        <v>0.4585863086612889</v>
       </c>
       <c r="F6">
-        <v>1.280079155767879</v>
+        <v>2.039649719802881</v>
       </c>
       <c r="G6">
-        <v>0.4399560794682174</v>
+        <v>0.5278686014122798</v>
       </c>
       <c r="H6">
-        <v>0.3281724330999936</v>
+        <v>0.6550019789152941</v>
       </c>
       <c r="I6">
-        <v>0.2334576580214573</v>
+        <v>0.4780157300268186</v>
       </c>
       <c r="J6">
-        <v>0.01754466518870368</v>
+        <v>0.03747291451266754</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7446612034999447</v>
+        <v>0.4927209405688444</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.933646238303822</v>
+        <v>0.6515119312614672</v>
       </c>
       <c r="C7">
-        <v>0.5692636889314997</v>
+        <v>0.1759777026366578</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2278230586914063</v>
+        <v>0.4593989116975266</v>
       </c>
       <c r="F7">
-        <v>1.312484378426205</v>
+        <v>2.041902437339473</v>
       </c>
       <c r="G7">
-        <v>0.4510618139428288</v>
+        <v>0.5281967390278766</v>
       </c>
       <c r="H7">
-        <v>0.3304299117812803</v>
+        <v>0.6532424830041776</v>
       </c>
       <c r="I7">
-        <v>0.2316204324409092</v>
+        <v>0.4754480763116753</v>
       </c>
       <c r="J7">
-        <v>0.01698141421099741</v>
+        <v>0.03721314599437342</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7812714624799284</v>
+        <v>0.5027750988018695</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.341916257967</v>
+        <v>0.776465919080124</v>
       </c>
       <c r="C8">
-        <v>0.6875596644153177</v>
+        <v>0.2122582755017675</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2536125086653627</v>
+        <v>0.4633187272089216</v>
       </c>
       <c r="F8">
-        <v>1.462517683688588</v>
+        <v>2.054914450398456</v>
       </c>
       <c r="G8">
-        <v>0.5045798412903935</v>
+        <v>0.5310535315287694</v>
       </c>
       <c r="H8">
-        <v>0.3429770053590744</v>
+        <v>0.6465879400961256</v>
       </c>
       <c r="I8">
-        <v>0.2261602266124889</v>
+        <v>0.4651404721211776</v>
       </c>
       <c r="J8">
-        <v>0.01464876652320335</v>
+        <v>0.03613005359284971</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.9439284719271797</v>
+        <v>0.5474912828639731</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.151078908701663</v>
+        <v>1.020931821948238</v>
       </c>
       <c r="C9">
-        <v>0.922619726657274</v>
+        <v>0.2830043815093575</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.306356541124984</v>
+        <v>0.4722010382391488</v>
       </c>
       <c r="F9">
-        <v>1.786537327737392</v>
+        <v>2.091523772365306</v>
       </c>
       <c r="G9">
-        <v>0.6288564660001157</v>
+        <v>0.5417874620377887</v>
       </c>
       <c r="H9">
-        <v>0.3782980665186386</v>
+        <v>0.6375505305093299</v>
       </c>
       <c r="I9">
-        <v>0.2263650898520275</v>
+        <v>0.4486344665106792</v>
       </c>
       <c r="J9">
-        <v>0.01068484843230655</v>
+        <v>0.03423432201524701</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.268418960042865</v>
+        <v>0.6364205811578643</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.754516661335572</v>
+        <v>1.200183030692415</v>
       </c>
       <c r="C10">
-        <v>1.098503439423183</v>
+        <v>0.3347437131761239</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.3467681000967389</v>
+        <v>0.4794529662036808</v>
       </c>
       <c r="F10">
-        <v>2.047498981014513</v>
+        <v>2.125241982735446</v>
       </c>
       <c r="G10">
-        <v>0.7352088444106499</v>
+        <v>0.5528679097414937</v>
       </c>
       <c r="H10">
-        <v>0.4122731119604168</v>
+        <v>0.6333793736293956</v>
       </c>
       <c r="I10">
-        <v>0.2346261201316153</v>
+        <v>0.4387957959343041</v>
       </c>
       <c r="J10">
-        <v>0.008209087222966094</v>
+        <v>0.03298154123656971</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.511845036459576</v>
+        <v>0.70251001423415</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.031911016531581</v>
+        <v>1.281650434587448</v>
       </c>
       <c r="C11">
-        <v>1.179536568731578</v>
+        <v>0.3582313320918615</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.365596211593882</v>
+        <v>0.4829092345509238</v>
       </c>
       <c r="F11">
-        <v>2.172363251141874</v>
+        <v>2.142075605049072</v>
       </c>
       <c r="G11">
-        <v>0.7876690207754677</v>
+        <v>0.5586165367839016</v>
       </c>
       <c r="H11">
-        <v>0.4298424619658476</v>
+        <v>0.6320227970032022</v>
       </c>
       <c r="I11">
-        <v>0.2405068794139282</v>
+        <v>0.4348228994163676</v>
       </c>
       <c r="J11">
-        <v>0.007193839231968813</v>
+        <v>0.03244221498611655</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.624089015067497</v>
+        <v>0.7327391807038737</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.137454116114441</v>
+        <v>1.312488792671502</v>
       </c>
       <c r="C12">
-        <v>1.210399173064275</v>
+        <v>0.3671184847376594</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.3727975136122339</v>
+        <v>0.484240595068826</v>
       </c>
       <c r="F12">
-        <v>2.220639490241894</v>
+        <v>2.148665991630224</v>
       </c>
       <c r="G12">
-        <v>0.8081966635634217</v>
+        <v>0.5608963330929697</v>
       </c>
       <c r="H12">
-        <v>0.4368341445294419</v>
+        <v>0.6315872744150681</v>
       </c>
       <c r="I12">
-        <v>0.2430728046619706</v>
+        <v>0.4333912683193653</v>
       </c>
       <c r="J12">
-        <v>0.006826898568767614</v>
+        <v>0.03224240001847178</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.666847738001394</v>
+        <v>0.7442097062976529</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.114699845738812</v>
+        <v>1.305847728232038</v>
       </c>
       <c r="C13">
-        <v>1.203743968060564</v>
+        <v>0.365204794226031</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.3712432757935034</v>
+        <v>0.4839528612040098</v>
       </c>
       <c r="F13">
-        <v>2.210196338153679</v>
+        <v>2.147237019594144</v>
       </c>
       <c r="G13">
-        <v>0.8037449349187398</v>
+        <v>0.5604007434939007</v>
       </c>
       <c r="H13">
-        <v>0.4353127139279991</v>
+        <v>0.6316775883430239</v>
       </c>
       <c r="I13">
-        <v>0.2425045341512089</v>
+        <v>0.4336963487479366</v>
       </c>
       <c r="J13">
-        <v>0.006905120348257299</v>
+        <v>0.03228523701104269</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.657626930587085</v>
+        <v>0.741738287436263</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.040583576039182</v>
+        <v>1.284187761527676</v>
       </c>
       <c r="C14">
-        <v>1.182071920296551</v>
+        <v>0.3589626261565968</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.3661871880222591</v>
+        <v>0.4830183149496818</v>
       </c>
       <c r="F14">
-        <v>2.176314408566981</v>
+        <v>2.142613468956185</v>
       </c>
       <c r="G14">
-        <v>0.7893441124087985</v>
+        <v>0.5588020281297617</v>
       </c>
       <c r="H14">
-        <v>0.4304106758621344</v>
+        <v>0.6319853970750131</v>
       </c>
       <c r="I14">
-        <v>0.2407109795622162</v>
+        <v>0.4347036558804156</v>
       </c>
       <c r="J14">
-        <v>0.00716329031978491</v>
+        <v>0.03242568746480767</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.62760147459187</v>
+        <v>0.7336824005136862</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.995252982804743</v>
+        <v>1.270918874693564</v>
       </c>
       <c r="C15">
-        <v>1.16882117849741</v>
+        <v>0.3551381914305125</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.3630997373390912</v>
+        <v>0.4824488123637067</v>
       </c>
       <c r="F15">
-        <v>2.155693448187776</v>
+        <v>2.139809547949469</v>
       </c>
       <c r="G15">
-        <v>0.7806117920419666</v>
+        <v>0.5578362040399583</v>
       </c>
       <c r="H15">
-        <v>0.4274532130917663</v>
+        <v>0.6321841325749062</v>
       </c>
       <c r="I15">
-        <v>0.23965758585895</v>
+        <v>0.4353301592113183</v>
       </c>
       <c r="J15">
-        <v>0.007323756499554523</v>
+        <v>0.03251229314545778</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.609244319810287</v>
+        <v>0.7287509754300885</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.736453430978827</v>
+        <v>1.194857367668874</v>
       </c>
       <c r="C16">
-        <v>1.093230809768414</v>
+        <v>0.3332077524809449</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.3455472165437214</v>
+        <v>0.4792302501948669</v>
       </c>
       <c r="F16">
-        <v>2.039471600333442</v>
+        <v>2.124172024573411</v>
       </c>
       <c r="G16">
-        <v>0.7318688190179046</v>
+        <v>0.5525065653730081</v>
       </c>
       <c r="H16">
-        <v>0.4111703257004251</v>
+        <v>0.6334789478233631</v>
       </c>
       <c r="I16">
-        <v>0.2342873222780639</v>
+        <v>0.4390655955455216</v>
       </c>
       <c r="J16">
-        <v>0.008277798132929171</v>
+        <v>0.03301740434741696</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.50454309575089</v>
+        <v>0.7005377569743558</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.57848538182725</v>
+        <v>1.148176335376093</v>
       </c>
       <c r="C17">
-        <v>1.047140900858409</v>
+        <v>0.3197415703390334</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.3348983601721045</v>
+        <v>0.4772960072214687</v>
       </c>
       <c r="F17">
-        <v>1.969822483429937</v>
+        <v>2.114962446554301</v>
       </c>
       <c r="G17">
-        <v>0.7030628224337647</v>
+        <v>0.5494191391426568</v>
       </c>
       <c r="H17">
-        <v>0.4017462252331399</v>
+        <v>0.6344120992607429</v>
       </c>
       <c r="I17">
-        <v>0.2315594914524546</v>
+        <v>0.4414863056823037</v>
       </c>
       <c r="J17">
-        <v>0.00889254877382939</v>
+        <v>0.03333511774797993</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.440724070579932</v>
+        <v>0.6832718461108556</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.48789256129686</v>
+        <v>1.121319640476202</v>
       </c>
       <c r="C18">
-        <v>1.020725490045777</v>
+        <v>0.3119915833690357</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.3288147819532767</v>
+        <v>0.4761982949919314</v>
       </c>
       <c r="F18">
-        <v>1.93033406961267</v>
+        <v>2.109806008460808</v>
       </c>
       <c r="G18">
-        <v>0.6868734489962947</v>
+        <v>0.5477099151328133</v>
       </c>
       <c r="H18">
-        <v>0.3965224356412591</v>
+        <v>0.6349997115511172</v>
       </c>
       <c r="I18">
-        <v>0.2301881077710206</v>
+        <v>0.4429259254162226</v>
       </c>
       <c r="J18">
-        <v>0.009256481176973974</v>
+        <v>0.03352073425957247</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.404156558289387</v>
+        <v>0.6733564752422865</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.457262673525292</v>
+        <v>1.112225247944366</v>
       </c>
       <c r="C19">
-        <v>1.011797015611307</v>
+        <v>0.3093667840129513</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.3267618724084684</v>
+        <v>0.4758291750406727</v>
       </c>
       <c r="F19">
-        <v>1.917059073897718</v>
+        <v>2.108084260364336</v>
       </c>
       <c r="G19">
-        <v>0.6814549380177795</v>
+        <v>0.5471426033925297</v>
       </c>
       <c r="H19">
-        <v>0.3947865381891802</v>
+        <v>0.635207394854703</v>
       </c>
       <c r="I19">
-        <v>0.2297567440046642</v>
+        <v>0.4434214623664587</v>
       </c>
       <c r="J19">
-        <v>0.00938143455819862</v>
+        <v>0.03358407419282816</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.391798305887036</v>
+        <v>0.6700019764664944</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.595273211616984</v>
+        <v>1.153146341368426</v>
       </c>
       <c r="C20">
-        <v>1.052037284664522</v>
+        <v>0.3211755445447864</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.3360276158444009</v>
+        <v>0.4775003781436737</v>
       </c>
       <c r="F20">
-        <v>1.977176809859344</v>
+        <v>2.115928256961737</v>
       </c>
       <c r="G20">
-        <v>0.706089515485516</v>
+        <v>0.5497409020229043</v>
       </c>
       <c r="H20">
-        <v>0.4027288396138289</v>
+        <v>0.6343074940378131</v>
       </c>
       <c r="I20">
-        <v>0.2318291899795533</v>
+        <v>0.441223718704002</v>
       </c>
       <c r="J20">
-        <v>0.008826026256314456</v>
+        <v>0.03330099879560589</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.447503017289648</v>
+        <v>0.6851082272414288</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.062339035751904</v>
+        <v>1.29055013944452</v>
       </c>
       <c r="C21">
-        <v>1.188432463419133</v>
+        <v>0.3607962954438335</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.367670278987454</v>
+        <v>0.4832922025356652</v>
       </c>
       <c r="F21">
-        <v>2.186238489034309</v>
+        <v>2.143965652507788</v>
       </c>
       <c r="G21">
-        <v>0.793555373167294</v>
+        <v>0.559268807738647</v>
       </c>
       <c r="H21">
-        <v>0.4318410415182257</v>
+        <v>0.6318928610975547</v>
       </c>
       <c r="I21">
-        <v>0.2412283030065012</v>
+        <v>0.4344058049204307</v>
       </c>
       <c r="J21">
-        <v>0.007086971027536748</v>
+        <v>0.03238431374533235</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.636413457494811</v>
+        <v>0.7360479771245423</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.3705530875298</v>
+        <v>1.380283606292551</v>
       </c>
       <c r="C22">
-        <v>1.278623350016915</v>
+        <v>0.3866493389600691</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.3887714352986649</v>
+        <v>0.4872088791728331</v>
       </c>
       <c r="F22">
-        <v>2.328717952220117</v>
+        <v>2.163548312793367</v>
       </c>
       <c r="G22">
-        <v>0.8546195523794324</v>
+        <v>0.5660962273061614</v>
       </c>
       <c r="H22">
-        <v>0.4528596330108314</v>
+        <v>0.6307706599800582</v>
       </c>
       <c r="I22">
-        <v>0.2493654410471109</v>
+        <v>0.4303745892997597</v>
       </c>
       <c r="J22">
-        <v>0.006053322402292505</v>
+        <v>0.03181095752110874</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.761380250936568</v>
+        <v>0.7694762883729567</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.205752311710626</v>
+        <v>1.332397638717282</v>
       </c>
       <c r="C23">
-        <v>1.230380012490627</v>
+        <v>0.3728548944382055</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.377468146736426</v>
+        <v>0.4851064785922929</v>
       </c>
       <c r="F23">
-        <v>2.252100378516488</v>
+        <v>2.152981226209832</v>
       </c>
       <c r="G23">
-        <v>0.8216445500542306</v>
+        <v>0.5623970077281939</v>
       </c>
       <c r="H23">
-        <v>0.4414469448197025</v>
+        <v>0.6313277516210292</v>
       </c>
       <c r="I23">
-        <v>0.2448279327541201</v>
+        <v>0.4324870936394483</v>
       </c>
       <c r="J23">
-        <v>0.006595022199751277</v>
+        <v>0.03211460560410462</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.694532187270568</v>
+        <v>0.7516225990834187</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.587682738874264</v>
+        <v>1.150899461249196</v>
       </c>
       <c r="C24">
-        <v>1.049823375455446</v>
+        <v>0.320527270036564</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.3355169597142478</v>
+        <v>0.4774079374705806</v>
       </c>
       <c r="F24">
-        <v>1.97385020199232</v>
+        <v>2.115491183425988</v>
       </c>
       <c r="G24">
-        <v>0.7047199957786461</v>
+        <v>0.5495952282085597</v>
       </c>
       <c r="H24">
-        <v>0.4022839971713665</v>
+        <v>0.6343546268106195</v>
       </c>
       <c r="I24">
-        <v>0.2317066485389425</v>
+        <v>0.4413422850381785</v>
       </c>
       <c r="J24">
-        <v>0.00885606848376197</v>
+        <v>0.03331641475865288</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.444437875475444</v>
+        <v>0.6842779649520736</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.930899326491499</v>
+        <v>0.9548594282517229</v>
       </c>
       <c r="C25">
-        <v>0.8585725190712594</v>
+        <v>0.2639079056741593</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2918224332427997</v>
+        <v>0.4696704338484921</v>
       </c>
       <c r="F25">
-        <v>1.69522715050023</v>
+        <v>2.080426350308073</v>
       </c>
       <c r="G25">
-        <v>0.5928480935647258</v>
+        <v>0.5383274623210781</v>
       </c>
       <c r="H25">
-        <v>0.367449734705616</v>
+        <v>0.6395635181086305</v>
       </c>
       <c r="I25">
-        <v>0.2249988016068549</v>
+        <v>0.452699976984313</v>
       </c>
       <c r="J25">
-        <v>0.01168559124291235</v>
+        <v>0.03472264513235546</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.179882682805513</v>
+        <v>0.612230378514667</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_170/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_170/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8102841940994949</v>
+        <v>2.452988631696314</v>
       </c>
       <c r="C2">
-        <v>0.2220612147349925</v>
+        <v>0.7197763338561742</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.4644618158516849</v>
+        <v>0.2607355720520275</v>
       </c>
       <c r="F2">
-        <v>2.059188574304642</v>
+        <v>1.505024808842592</v>
       </c>
       <c r="G2">
-        <v>0.5321724232187819</v>
+        <v>0.5202775089780829</v>
       </c>
       <c r="H2">
-        <v>0.6450555677373586</v>
+        <v>0.3470511208945481</v>
       </c>
       <c r="I2">
-        <v>0.4625974569064297</v>
+        <v>0.2253696110957577</v>
       </c>
       <c r="J2">
-        <v>0.03585200113963216</v>
+        <v>0.01405587617162762</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5596912608547484</v>
+        <v>0.9883176438862691</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7121606348314344</v>
+        <v>2.131406147040764</v>
       </c>
       <c r="C3">
-        <v>0.1935999399594834</v>
+        <v>0.626541093961805</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.4612373741089968</v>
+        <v>0.2402331123808565</v>
       </c>
       <c r="F3">
-        <v>2.047632612782522</v>
+        <v>1.383884249400239</v>
       </c>
       <c r="G3">
-        <v>0.5293149327334703</v>
+        <v>0.4761334893642868</v>
       </c>
       <c r="H3">
-        <v>0.6498035695886983</v>
+        <v>0.3360100852421652</v>
       </c>
       <c r="I3">
-        <v>0.4702532687446812</v>
+        <v>0.2284531173325632</v>
       </c>
       <c r="J3">
-        <v>0.03667570645015683</v>
+        <v>0.01582006470581776</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5244027752425211</v>
+        <v>0.8599552742370236</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6518435782678864</v>
+        <v>1.934725716706254</v>
       </c>
       <c r="C4">
-        <v>0.176074140028561</v>
+        <v>0.5695762258283708</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.4594086031030713</v>
+        <v>0.2278903451985812</v>
       </c>
       <c r="F4">
-        <v>2.041930474746664</v>
+        <v>1.312867211346173</v>
       </c>
       <c r="G4">
-        <v>0.5282013462138337</v>
+        <v>0.4511940967476278</v>
       </c>
       <c r="H4">
-        <v>0.6532225008564012</v>
+        <v>0.3304576795260914</v>
       </c>
       <c r="I4">
-        <v>0.4754185898894256</v>
+        <v>0.2316003220155736</v>
       </c>
       <c r="J4">
-        <v>0.03721014092745012</v>
+        <v>0.01697490450080252</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5028929364600998</v>
+        <v>0.7817003832887011</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6272473984886631</v>
+        <v>1.854722631427478</v>
       </c>
       <c r="C5">
-        <v>0.1689196198656759</v>
+        <v>0.5464165075620713</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.4587014321102245</v>
+        <v>0.2229179071245326</v>
       </c>
       <c r="F5">
-        <v>2.039956416641445</v>
+        <v>1.284709302584162</v>
       </c>
       <c r="G5">
-        <v>0.5279077145575144</v>
+        <v>0.4415315448679138</v>
       </c>
       <c r="H5">
-        <v>0.6547420421762524</v>
+        <v>0.328483405779707</v>
       </c>
       <c r="I5">
-        <v>0.4776398726074582</v>
+        <v>0.2331783371025864</v>
       </c>
       <c r="J5">
-        <v>0.03743512240291169</v>
+        <v>0.01746266158021248</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4941673922509864</v>
+        <v>0.7499300499721357</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6231622499318519</v>
+        <v>1.841445636353598</v>
       </c>
       <c r="C6">
-        <v>0.1677308577021677</v>
+        <v>0.5425736389487099</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.4585863086612889</v>
+        <v>0.2220955755636709</v>
       </c>
       <c r="F6">
-        <v>2.039649719802881</v>
+        <v>1.280079155767879</v>
       </c>
       <c r="G6">
-        <v>0.5278686014122798</v>
+        <v>0.4399560794682174</v>
       </c>
       <c r="H6">
-        <v>0.6550019789152941</v>
+        <v>0.3281724330999936</v>
       </c>
       <c r="I6">
-        <v>0.4780157300268186</v>
+        <v>0.233457658021468</v>
       </c>
       <c r="J6">
-        <v>0.03747291451266754</v>
+        <v>0.01754466518860864</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4927209405688444</v>
+        <v>0.7446612034999376</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6515119312614672</v>
+        <v>1.933646238303936</v>
       </c>
       <c r="C7">
-        <v>0.1759777026366578</v>
+        <v>0.5692636889316702</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.4593989116975266</v>
+        <v>0.2278230586913921</v>
       </c>
       <c r="F7">
-        <v>2.041902437339473</v>
+        <v>1.312484378426205</v>
       </c>
       <c r="G7">
-        <v>0.5281967390278766</v>
+        <v>0.4510618139428715</v>
       </c>
       <c r="H7">
-        <v>0.6532424830041776</v>
+        <v>0.3304299117812945</v>
       </c>
       <c r="I7">
-        <v>0.4754480763116753</v>
+        <v>0.231620432440895</v>
       </c>
       <c r="J7">
-        <v>0.03721314599437342</v>
+        <v>0.01698141421104049</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5027750988018695</v>
+        <v>0.7812714624799213</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.776465919080124</v>
+        <v>2.341916257967171</v>
       </c>
       <c r="C8">
-        <v>0.2122582755017675</v>
+        <v>0.6875596644152324</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.4633187272089216</v>
+        <v>0.2536125086653769</v>
       </c>
       <c r="F8">
-        <v>2.054914450398456</v>
+        <v>1.462517683688603</v>
       </c>
       <c r="G8">
-        <v>0.5310535315287694</v>
+        <v>0.5045798412903935</v>
       </c>
       <c r="H8">
-        <v>0.6465879400961256</v>
+        <v>0.3429770053590602</v>
       </c>
       <c r="I8">
-        <v>0.4651404721211776</v>
+        <v>0.2261602266124818</v>
       </c>
       <c r="J8">
-        <v>0.03613005359284971</v>
+        <v>0.01464876652322689</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5474912828639731</v>
+        <v>0.9439284719271939</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.020931821948238</v>
+        <v>3.151078908701663</v>
       </c>
       <c r="C9">
-        <v>0.2830043815093575</v>
+        <v>0.9226197266572456</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.4722010382391488</v>
+        <v>0.3063565411250053</v>
       </c>
       <c r="F9">
-        <v>2.091523772365306</v>
+        <v>1.786537327737392</v>
       </c>
       <c r="G9">
-        <v>0.5417874620377887</v>
+        <v>0.6288564660001583</v>
       </c>
       <c r="H9">
-        <v>0.6375505305093299</v>
+        <v>0.3782980665186386</v>
       </c>
       <c r="I9">
-        <v>0.4486344665106792</v>
+        <v>0.2263650898520346</v>
       </c>
       <c r="J9">
-        <v>0.03423432201524701</v>
+        <v>0.01068484843235051</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.6364205811578643</v>
+        <v>1.268418960042865</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.200183030692415</v>
+        <v>3.754516661335572</v>
       </c>
       <c r="C10">
-        <v>0.3347437131761239</v>
+        <v>1.098503439422899</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.4794529662036808</v>
+        <v>0.3467681000967673</v>
       </c>
       <c r="F10">
-        <v>2.125241982735446</v>
+        <v>2.047498981014527</v>
       </c>
       <c r="G10">
-        <v>0.5528679097414937</v>
+        <v>0.7352088444105931</v>
       </c>
       <c r="H10">
-        <v>0.6333793736293956</v>
+        <v>0.4122731119605305</v>
       </c>
       <c r="I10">
-        <v>0.4387957959343041</v>
+        <v>0.2346261201316153</v>
       </c>
       <c r="J10">
-        <v>0.03298154123656971</v>
+        <v>0.00820908722295588</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.70251001423415</v>
+        <v>1.511845036459576</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.281650434587448</v>
+        <v>4.031911016531637</v>
       </c>
       <c r="C11">
-        <v>0.3582313320918615</v>
+        <v>1.179536568731237</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.4829092345509238</v>
+        <v>0.3655962115938749</v>
       </c>
       <c r="F11">
-        <v>2.142075605049072</v>
+        <v>2.17236325114186</v>
       </c>
       <c r="G11">
-        <v>0.5586165367839016</v>
+        <v>0.7876690207754251</v>
       </c>
       <c r="H11">
-        <v>0.6320227970032022</v>
+        <v>0.4298424619658476</v>
       </c>
       <c r="I11">
-        <v>0.4348228994163676</v>
+        <v>0.2405068794139211</v>
       </c>
       <c r="J11">
-        <v>0.03244221498611655</v>
+        <v>0.007193839231919519</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.7327391807038737</v>
+        <v>1.624089015067483</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.312488792671502</v>
+        <v>4.137454116114384</v>
       </c>
       <c r="C12">
-        <v>0.3671184847376594</v>
+        <v>1.210399173064275</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.484240595068826</v>
+        <v>0.3727975136122623</v>
       </c>
       <c r="F12">
-        <v>2.148665991630224</v>
+        <v>2.220639490241894</v>
       </c>
       <c r="G12">
-        <v>0.5608963330929697</v>
+        <v>0.8081966635634217</v>
       </c>
       <c r="H12">
-        <v>0.6315872744150681</v>
+        <v>0.4368341445293282</v>
       </c>
       <c r="I12">
-        <v>0.4333912683193653</v>
+        <v>0.2430728046619706</v>
       </c>
       <c r="J12">
-        <v>0.03224240001847178</v>
+        <v>0.006826898568656592</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.7442097062976529</v>
+        <v>1.66684773800138</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.305847728232038</v>
+        <v>4.114699845738755</v>
       </c>
       <c r="C13">
-        <v>0.365204794226031</v>
+        <v>1.203743968060621</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.4839528612040098</v>
+        <v>0.3712432757935034</v>
       </c>
       <c r="F13">
-        <v>2.147237019594144</v>
+        <v>2.210196338153665</v>
       </c>
       <c r="G13">
-        <v>0.5604007434939007</v>
+        <v>0.8037449349187966</v>
       </c>
       <c r="H13">
-        <v>0.6316775883430239</v>
+        <v>0.4353127139280133</v>
       </c>
       <c r="I13">
-        <v>0.4336963487479366</v>
+        <v>0.2425045341512231</v>
       </c>
       <c r="J13">
-        <v>0.03228523701104269</v>
+        <v>0.006905120348243088</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.741738287436263</v>
+        <v>1.657626930587071</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.284187761527676</v>
+        <v>4.040583576039523</v>
       </c>
       <c r="C14">
-        <v>0.3589626261565968</v>
+        <v>1.182071920296437</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.4830183149496818</v>
+        <v>0.3661871880222733</v>
       </c>
       <c r="F14">
-        <v>2.142613468956185</v>
+        <v>2.176314408566995</v>
       </c>
       <c r="G14">
-        <v>0.5588020281297617</v>
+        <v>0.7893441124087559</v>
       </c>
       <c r="H14">
-        <v>0.6319853970750131</v>
+        <v>0.4304106758622623</v>
       </c>
       <c r="I14">
-        <v>0.4347036558804156</v>
+        <v>0.2407109795622162</v>
       </c>
       <c r="J14">
-        <v>0.03242568746480767</v>
+        <v>0.007163290319782689</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.7336824005136862</v>
+        <v>1.627601474591884</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.270918874693564</v>
+        <v>3.995252982804914</v>
       </c>
       <c r="C15">
-        <v>0.3551381914305125</v>
+        <v>1.168821178497751</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.4824488123637067</v>
+        <v>0.3630997373390485</v>
       </c>
       <c r="F15">
-        <v>2.139809547949469</v>
+        <v>2.155693448187819</v>
       </c>
       <c r="G15">
-        <v>0.5578362040399583</v>
+        <v>0.7806117920419808</v>
       </c>
       <c r="H15">
-        <v>0.6321841325749062</v>
+        <v>0.4274532130918942</v>
       </c>
       <c r="I15">
-        <v>0.4353301592113183</v>
+        <v>0.2396575858589571</v>
       </c>
       <c r="J15">
-        <v>0.03251229314545778</v>
+        <v>0.007323756499613143</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.7287509754300885</v>
+        <v>1.609244319810273</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.194857367668874</v>
+        <v>3.736453430978713</v>
       </c>
       <c r="C16">
-        <v>0.3332077524809449</v>
+        <v>1.093230809768414</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.4792302501948669</v>
+        <v>0.3455472165437214</v>
       </c>
       <c r="F16">
-        <v>2.124172024573411</v>
+        <v>2.039471600333428</v>
       </c>
       <c r="G16">
-        <v>0.5525065653730081</v>
+        <v>0.7318688190178761</v>
       </c>
       <c r="H16">
-        <v>0.6334789478233631</v>
+        <v>0.4111703257004393</v>
       </c>
       <c r="I16">
-        <v>0.4390655955455216</v>
+        <v>0.2342873222780852</v>
       </c>
       <c r="J16">
-        <v>0.03301740434741696</v>
+        <v>0.008277798133025094</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.7005377569743558</v>
+        <v>1.50454309575089</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.148176335376093</v>
+        <v>3.578485381827306</v>
       </c>
       <c r="C17">
-        <v>0.3197415703390334</v>
+        <v>1.047140900858409</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.4772960072214687</v>
+        <v>0.3348983601720761</v>
       </c>
       <c r="F17">
-        <v>2.114962446554301</v>
+        <v>1.969822483429937</v>
       </c>
       <c r="G17">
-        <v>0.5494191391426568</v>
+        <v>0.7030628224337221</v>
       </c>
       <c r="H17">
-        <v>0.6344120992607429</v>
+        <v>0.4017462252330262</v>
       </c>
       <c r="I17">
-        <v>0.4414863056823037</v>
+        <v>0.2315594914524688</v>
       </c>
       <c r="J17">
-        <v>0.03333511774797993</v>
+        <v>0.008892548773761888</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.6832718461108556</v>
+        <v>1.440724070579904</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.121319640476202</v>
+        <v>3.487892561296974</v>
       </c>
       <c r="C18">
-        <v>0.3119915833690357</v>
+        <v>1.020725490046203</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.4761982949919314</v>
+        <v>0.3288147819532696</v>
       </c>
       <c r="F18">
-        <v>2.109806008460808</v>
+        <v>1.93033406961267</v>
       </c>
       <c r="G18">
-        <v>0.5477099151328133</v>
+        <v>0.6868734489962804</v>
       </c>
       <c r="H18">
-        <v>0.6349997115511172</v>
+        <v>0.3965224356412591</v>
       </c>
       <c r="I18">
-        <v>0.4429259254162226</v>
+        <v>0.2301881077710313</v>
       </c>
       <c r="J18">
-        <v>0.03352073425957247</v>
+        <v>0.009256481176922016</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.6733564752422865</v>
+        <v>1.404156558289401</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.112225247944366</v>
+        <v>3.457262673525179</v>
       </c>
       <c r="C19">
-        <v>0.3093667840129513</v>
+        <v>1.01179701561108</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.4758291750406727</v>
+        <v>0.3267618724084613</v>
       </c>
       <c r="F19">
-        <v>2.108084260364336</v>
+        <v>1.917059073897704</v>
       </c>
       <c r="G19">
-        <v>0.5471426033925297</v>
+        <v>0.6814549380178505</v>
       </c>
       <c r="H19">
-        <v>0.635207394854703</v>
+        <v>0.3947865381892939</v>
       </c>
       <c r="I19">
-        <v>0.4434214623664587</v>
+        <v>0.2297567440046606</v>
       </c>
       <c r="J19">
-        <v>0.03358407419282816</v>
+        <v>0.009381434558239921</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.6700019764664944</v>
+        <v>1.391798305887036</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.153146341368426</v>
+        <v>3.595273211616984</v>
       </c>
       <c r="C20">
-        <v>0.3211755445447864</v>
+        <v>1.052037284664408</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.4775003781436737</v>
+        <v>0.336027615844408</v>
       </c>
       <c r="F20">
-        <v>2.115928256961737</v>
+        <v>1.977176809859372</v>
       </c>
       <c r="G20">
-        <v>0.5497409020229043</v>
+        <v>0.7060895154854876</v>
       </c>
       <c r="H20">
-        <v>0.6343074940378131</v>
+        <v>0.4027288396139426</v>
       </c>
       <c r="I20">
-        <v>0.441223718704002</v>
+        <v>0.2318291899795533</v>
       </c>
       <c r="J20">
-        <v>0.03330099879560589</v>
+        <v>0.008826026256302466</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.6851082272414288</v>
+        <v>1.447503017289648</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.29055013944452</v>
+        <v>4.062339035751847</v>
       </c>
       <c r="C21">
-        <v>0.3607962954438335</v>
+        <v>1.188432463418792</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.4832922025356652</v>
+        <v>0.3676702789874469</v>
       </c>
       <c r="F21">
-        <v>2.143965652507788</v>
+        <v>2.186238489034309</v>
       </c>
       <c r="G21">
-        <v>0.559268807738647</v>
+        <v>0.7935553731672229</v>
       </c>
       <c r="H21">
-        <v>0.6318928610975547</v>
+        <v>0.4318410415182257</v>
       </c>
       <c r="I21">
-        <v>0.4344058049204307</v>
+        <v>0.2412283030065012</v>
       </c>
       <c r="J21">
-        <v>0.03238431374533235</v>
+        <v>0.007086971027599809</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.7360479771245423</v>
+        <v>1.636413457494839</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.380283606292551</v>
+        <v>4.370553087529913</v>
       </c>
       <c r="C22">
-        <v>0.3866493389600691</v>
+        <v>1.278623350016801</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.4872088791728331</v>
+        <v>0.3887714352986364</v>
       </c>
       <c r="F22">
-        <v>2.163548312793367</v>
+        <v>2.328717952220117</v>
       </c>
       <c r="G22">
-        <v>0.5660962273061614</v>
+        <v>0.8546195523794609</v>
       </c>
       <c r="H22">
-        <v>0.6307706599800582</v>
+        <v>0.4528596330108314</v>
       </c>
       <c r="I22">
-        <v>0.4303745892997597</v>
+        <v>0.249365441047118</v>
       </c>
       <c r="J22">
-        <v>0.03181095752110874</v>
+        <v>0.006053322402236105</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.7694762883729567</v>
+        <v>1.76138025093654</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.332397638717282</v>
+        <v>4.205752311710626</v>
       </c>
       <c r="C23">
-        <v>0.3728548944382055</v>
+        <v>1.230380012490684</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.4851064785922929</v>
+        <v>0.3774681467364047</v>
       </c>
       <c r="F23">
-        <v>2.152981226209832</v>
+        <v>2.252100378516488</v>
       </c>
       <c r="G23">
-        <v>0.5623970077281939</v>
+        <v>0.8216445500542591</v>
       </c>
       <c r="H23">
-        <v>0.6313277516210292</v>
+        <v>0.4414469448197025</v>
       </c>
       <c r="I23">
-        <v>0.4324870936394483</v>
+        <v>0.2448279327541485</v>
       </c>
       <c r="J23">
-        <v>0.03211460560410462</v>
+        <v>0.006595022199780587</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.7516225990834187</v>
+        <v>1.694532187270568</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.150899461249196</v>
+        <v>3.587682738874321</v>
       </c>
       <c r="C24">
-        <v>0.320527270036564</v>
+        <v>1.049823375455389</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.4774079374705806</v>
+        <v>0.3355169597142478</v>
       </c>
       <c r="F24">
-        <v>2.115491183425988</v>
+        <v>1.973850201992349</v>
       </c>
       <c r="G24">
-        <v>0.5495952282085597</v>
+        <v>0.7047199957786461</v>
       </c>
       <c r="H24">
-        <v>0.6343546268106195</v>
+        <v>0.4022839971712528</v>
       </c>
       <c r="I24">
-        <v>0.4413422850381785</v>
+        <v>0.2317066485389425</v>
       </c>
       <c r="J24">
-        <v>0.03331641475865288</v>
+        <v>0.008856068483742874</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.6842779649520736</v>
+        <v>1.44443787547543</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9548594282517229</v>
+        <v>2.930899326491556</v>
       </c>
       <c r="C25">
-        <v>0.2639079056741593</v>
+        <v>0.8585725190714584</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.4696704338484921</v>
+        <v>0.2918224332427783</v>
       </c>
       <c r="F25">
-        <v>2.080426350308073</v>
+        <v>1.69522715050023</v>
       </c>
       <c r="G25">
-        <v>0.5383274623210781</v>
+        <v>0.5928480935646974</v>
       </c>
       <c r="H25">
-        <v>0.6395635181086305</v>
+        <v>0.3674497347057155</v>
       </c>
       <c r="I25">
-        <v>0.452699976984313</v>
+        <v>0.2249988016068549</v>
       </c>
       <c r="J25">
-        <v>0.03472264513235546</v>
+        <v>0.01168559124295809</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.612230378514667</v>
+        <v>1.179882682805498</v>
       </c>
       <c r="N25">
         <v>0</v>
